--- a/timetable_outputs/timetable_complete.xlsx
+++ b/timetable_outputs/timetable_complete.xlsx
@@ -495,22 +495,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Divya M</t>
+          <t>R.Sabitha nan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>J Block-JL1 (Lab)</t>
+          <t>J Block-JR1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nan Unknown</t>
+          <t>J.A.Adlin Layola</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A309 (Classroom)</t>
+          <t>A Block-A110 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,34 +564,34 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A102 (Classroom)</t>
+          <t>A Block-A208 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kirubhakar T T</t>
+          <t>Divya M</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09:50-11:30</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kirubhakar T T</t>
+          <t>nan Unknown</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Techlounge-TLSR1 (Lab)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J.A.Adlin Layola</t>
+          <t>R.Sabitha nan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>A Block-A104/105 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>J.A.Adlin Layola</t>
+          <t>Divya M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A311 (Classroom)</t>
+          <t>K Block-KFR01 (Lab)</t>
         </is>
       </c>
     </row>
@@ -684,49 +684,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kirubhakar T T</t>
+          <t>R.Sabitha nan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>K Block-KSL03 (Lab)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R.Sabitha nan</t>
+          <t>Kirubhakar T T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>Techlounge-TLGL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS23531 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kirubhakar T T</t>
+          <t>J.A.Adlin Layola</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -765,22 +765,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Divya M</t>
+          <t>Kirubhakar T T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Techlounge-TLFR1 (Lab)</t>
+          <t>K Block-KSL03 (Lab)</t>
         </is>
       </c>
     </row>
@@ -792,49 +792,49 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Divya M</t>
+          <t>Kirubhakar T T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Block-A310 (Classroom)</t>
+          <t>Techlounge-TLSL2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Divya M</t>
+          <t>nan Unknown</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Block-A311 (Classroom)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -846,22 +846,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R.Sabitha nan</t>
+          <t>Divya M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A Block-A202 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -873,22 +873,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R.Sabitha nan</t>
+          <t>Kirubhakar T T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>J Block-JL2 (Lab)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -900,22 +900,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>nan Unknown</t>
+          <t>J.A.Adlin Layola</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A Block-A205 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J Block-JR3 (Lab)</t>
+          <t>Techlounge-TLFL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>nan Unknown</t>
+          <t>Divya M</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -981,22 +981,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Divya M</t>
+          <t>nan Unknown</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A Block-A309 (Classroom)</t>
+          <t>A Block-A104/105 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1008,22 +1008,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>J.A.Adlin Layola</t>
+          <t>Divya M</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A Block-A108 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A Block-A203 (Classroom)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1123,51 +1123,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>J Block-JL1 (Lab)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Section E</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A310 (Classroom)</t>
+          <t>K Block-KFR01 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1177,24 +1177,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A208 (Classroom)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1204,19 +1204,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>J Block-JL1 (Lab)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1231,24 +1231,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A108 (Classroom)</t>
+          <t>A Block-A103 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Techlounge-TLFR1 (Lab)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1280,66 +1280,66 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section E</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A310 (Classroom)</t>
+          <t>A Block-A211 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section E</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Block-A311 (Classroom)</t>
+          <t>Techlounge-TLFR5 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Section E</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Techlounge-TLFR3 (Lab)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A203 (Classroom)</t>
+          <t>A Block-A303 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1466,24 +1466,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>K Block-KFR03 (Lab)</t>
+          <t>Techlounge-TLFL5 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1532,12 +1532,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A202 (Classroom)</t>
+          <t>K Block-KFL02 (Lab)</t>
         </is>
       </c>
     </row>
@@ -1600,17 +1600,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1620,19 +1620,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>A Block-A110 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section D</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A311 (Classroom)</t>
+          <t>A Block-A310 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1659,29 +1659,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Section D</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A302 (Classroom)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Section D</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1713,12 +1713,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1728,24 +1728,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A309 (Classroom)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A302 (Classroom)</t>
+          <t>A Block-A110 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A108 (Classroom)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>16:00-16:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1804,12 +1804,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section D</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Block-A203 (Classroom)</t>
+          <t>A Block-A211 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>09:00-09:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1877,29 +1877,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1909,24 +1909,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>K Block-KFL03 (Lab)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09:50-11:30</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Techlounge-TLFL3 (Lab)</t>
+          <t>Techlounge-TLFL1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1963,46 +1963,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>A Block-A209 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Section B</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>K Block-KFR01 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>17:00-17:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2012,12 +2012,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Section B</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2044,41 +2044,41 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>J Block-JL1 (Lab)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Block-A108 (Classroom)</t>
+          <t>Techlounge-TLSL2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>J Block-JL3 (Lab)</t>
+          <t>K Block-KFL01 (Lab)</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Block-A204 (Classroom)</t>
+          <t>A Block-A108 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,12 +2178,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>A Block-A205 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08:00-11:30</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
+          <t>K Block-KSL03 (Lab)</t>
         </is>
       </c>
     </row>
@@ -2237,22 +2237,49 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>09:50-11:30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CS23531 - Lab</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Section C</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Techlounge-TLSL1 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>11:50-13:30</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>CS23531 - Lab</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Section C</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Techlounge-TLSL2 (Lab)</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -2305,17 +2332,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2325,24 +2352,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Techlounge-TLSR1 (Lab)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>15:50-17:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2352,19 +2379,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>J Block-JR3 (Lab)</t>
+          <t>J Block-JR2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2379,24 +2406,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>A Block-A103 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2406,19 +2433,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2433,7 +2460,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A103 (Classroom)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2518,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2501,29 +2528,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2533,19 +2560,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17:00-17:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2560,19 +2587,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>A Block-A311 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>08:00-08:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2582,19 +2609,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2604,7 +2631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2614,34 +2641,34 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Section C</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A204 (Classroom)</t>
+          <t>A Block-A108 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2685,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2668,19 +2695,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>A Block-A209 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2690,12 +2717,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Section C</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Block-A110 (Classroom)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -2748,27 +2775,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2807,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09:50-11:30</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2790,7 +2817,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2807,7 +2834,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2817,39 +2844,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>K Block-KSL03 (Lab)</t>
+          <t>Techlounge-TLSL1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23531 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>Techlounge-TLSL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -2861,34 +2888,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23531 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A210 (Classroom)</t>
+          <t>Techlounge-TLGL2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2898,24 +2925,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL2 (Lab)</t>
+          <t>K Block-KSL03 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09:50-11:30</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2925,12 +2952,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>Techlounge-TLSL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -2942,22 +2969,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL2 (Lab)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3042,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3030,7 +3057,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>K Block-KFL02 (Lab)</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3069,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3057,24 +3084,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL2 (Lab)</t>
+          <t>A Block-A204 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>15:50-17:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3084,14 +3111,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A204 (Classroom)</t>
+          <t>J Block-JR1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3111,24 +3138,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>17:00-17:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3138,7 +3165,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Techlounge-TLFL3 (Lab)</t>
+          <t>A Block-A205 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3191,12 +3218,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3211,19 +3238,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A208 (Classroom)</t>
+          <t>A Block-A303 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3238,19 +3265,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>Techlounge-TLGL1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>09:50-13:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3265,34 +3292,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>08:00-09:40</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS23531 - Lab</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Section D</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3350,22 +3350,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>08:00-08:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aswana Lal</t>
+          <t>S.Vinothini nan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
+          <t>A Block-A308 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3382,17 +3382,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aswana Lal</t>
+          <t>Jaeyalakshmi M</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A102 (Classroom)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3404,12 +3404,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>Techlounge-TLGL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -3431,22 +3431,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dharshini B S</t>
+          <t>Aswana Lal</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A202 (Classroom)</t>
+          <t>A Block-A210 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3458,22 +3458,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09:00-09:50</t>
+          <t>08:00-11:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Aswana Lal</t>
+          <t>Sathiyavathi S</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A210 (Classroom)</t>
+          <t>Techlounge-TLGL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -3485,49 +3485,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S.Vinothini nan</t>
+          <t>Sathiyavathi S</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>Techlounge-TLGL1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sathiyavathi S</t>
+          <t>Aswana Lal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL2 (Lab)</t>
+          <t>J Block-JL3 (Lab)</t>
         </is>
       </c>
     </row>
@@ -3539,22 +3539,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09:50-11:30</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sathiyavathi S</t>
+          <t>Dharshini B S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL2 (Lab)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3566,22 +3566,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jaeyalakshmi M</t>
+          <t>S.Vinothini nan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3593,22 +3593,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S.Vinothini nan</t>
+          <t>Jaeyalakshmi M</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Block-A208 (Classroom)</t>
+          <t>A Block-A209 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3620,22 +3620,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sathiyavathi S</t>
+          <t>Dharshini B S</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL2 (Lab)</t>
+          <t>A Block-A109 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3647,22 +3647,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S.Vinothini nan</t>
+          <t>Aswana Lal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>A Block-A209 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3674,22 +3674,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jaeyalakshmi M</t>
+          <t>S.Vinothini nan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aswana Lal</t>
+          <t>Jaeyalakshmi M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>K Block-KFR02 (Lab)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3728,12 +3728,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>Techlounge-TLSL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -3755,49 +3755,49 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS23531 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sathiyavathi S</t>
+          <t>Jaeyalakshmi M</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A Block-A210 (Classroom)</t>
+          <t>K Block-KFL01 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jaeyalakshmi M</t>
+          <t>Sathiyavathi S</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J Block-JL1 (Lab)</t>
+          <t>A Block-A204 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3809,22 +3809,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jaeyalakshmi M</t>
+          <t>Dharshini B S</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>J Block-JL3 (Lab)</t>
+          <t>A Block-A208 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dharshini B S</t>
+          <t>Aswana Lal</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A Block-A211 (Classroom)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3878,34 +3878,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A Block-A205 (Classroom)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>16:00-16:50</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CS23512 - Lecture</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Dharshini B S</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>A Block-A208 (Classroom)</t>
+          <t>A Block-A211 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3958,12 +3931,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>11:50-15:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3978,19 +3951,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>Techlounge-TLSL2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4005,24 +3978,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>K Block-KSL03 (Lab)</t>
+          <t>Techlounge-TLSL1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4032,34 +4005,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Techlounge-TLSR1 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16:00-16:50</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS23531 - Lecture</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Section E</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>A Block-A204 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4063,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>16:00-16:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4132,19 +4078,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A102 (Classroom)</t>
+          <t>A Block-A210 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4159,19 +4105,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A108 (Classroom)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4186,7 +4132,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>A Block-A303 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -4244,7 +4190,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17:00-17:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4259,19 +4205,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>A Block-A211 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4286,19 +4232,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A211 (Classroom)</t>
+          <t>A Block-A310 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4313,7 +4259,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A309 (Classroom)</t>
+          <t>A Block-A303 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -4371,12 +4317,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>09:00-09:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4386,7 +4332,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>J Block-JR2 (Lab)</t>
+          <t>A Block-A308 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -4398,12 +4344,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4413,14 +4359,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A102 (Classroom)</t>
+          <t>J Block-JR1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4440,19 +4386,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>A Block-A208 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4462,39 +4408,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A102 (Classroom)</t>
+          <t>A Block-A104/105 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>K Block-KSL03 (Lab)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4452,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17:00-17:50</t>
+          <t>16:00-16:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4533,22 +4479,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A202 (Classroom)</t>
+          <t>K Block-KSL03 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4506,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>15:50-17:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4570,12 +4516,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>J Block-JL2 (Lab)</t>
+          <t>K Block-KFL01 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4587,22 +4533,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09:50-11:30</t>
+          <t>09:00-09:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Section A</t>
+          <t>Section F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>J Block-JR3 (Lab)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -4614,22 +4560,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Section F</t>
+          <t>Section A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Block-A109 (Classroom)</t>
+          <t>Techlounge-TLFL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4682,12 +4628,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4702,19 +4648,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A203 (Classroom)</t>
+          <t>A Block-A103 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17:00-17:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4729,19 +4675,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A205 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09:00-09:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4756,7 +4702,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4755,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4829,24 +4775,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>15:50-17:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4856,7 +4802,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>K Block-KFR01 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4814,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4883,24 +4829,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Techlounge-TLFR4 (Lab)</t>
+          <t>A Block-A205 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4910,7 +4856,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL4 (Lab)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -4922,12 +4868,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4937,7 +4883,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>Techlounge-TLGL4 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4990,12 +4936,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>08:00-08:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5005,24 +4951,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Section E</t>
+          <t>Section B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A211 (Classroom)</t>
+          <t>A Block-A308 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>09:00-09:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5044,39 +4990,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Section B</t>
+          <t>Section E</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5091,7 +5037,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A110 (Classroom)</t>
+          <t>A Block-A311 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5049,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5118,19 +5064,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A208 (Classroom)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5145,19 +5091,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5184,7 +5130,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5199,7 +5145,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Block-A205 (Classroom)</t>
+          <t>A Block-A211 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5252,12 +5198,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>08:00-11:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5279,12 +5225,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09:50-13:30</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5299,19 +5245,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL2 (Lab)</t>
+          <t>Techlounge-TLGL1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5326,7 +5272,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A210 (Classroom)</t>
+          <t>A Block-A204 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5379,12 +5325,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5399,7 +5345,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A309 (Classroom)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5357,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5426,7 +5372,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A205 (Classroom)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5384,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5453,7 +5399,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>A Block-A104/105 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5457,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5526,7 +5472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A203 (Classroom)</t>
+          <t>A Block-A303 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5538,22 +5484,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>K.Ananthajothi nan</t>
+          <t>Farjana U</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>Techlounge-TLFL5 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5565,22 +5511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Farjana U</t>
+          <t>S.Vinodhkumar nan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>K Block-KFR03 (Lab)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17:00-17:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5607,34 +5553,34 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>15:50-17:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Farjana U</t>
+          <t>S.Vinodhkumar nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
+          <t>K Block-KFR01 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5646,22 +5592,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S.Vinodhkumar nan</t>
+          <t>Jananee V</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>A Block-A205 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5673,22 +5619,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S.Vinodhkumar nan</t>
+          <t>K.Ananthajothi nan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5700,22 +5646,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S.Vinodhkumar nan</t>
+          <t>K.Ananthajothi nan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Techlounge-TLFR4 (Lab)</t>
+          <t>A Block-A311 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5727,34 +5673,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>S.Ponmani nan</t>
+          <t>S.Vinodhkumar nan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A Block-A203 (Classroom)</t>
+          <t>A Block-A205 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17:00-17:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5769,7 +5715,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Block-A205 (Classroom)</t>
+          <t>A Block-A103 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5781,22 +5727,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K.Ananthajothi nan</t>
+          <t>Farjana U</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A Block-A204 (Classroom)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5808,7 +5754,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5830,7 +5776,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5840,44 +5786,44 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS23531 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jananee V</t>
+          <t>S.Vinodhkumar nan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S.Vinodhkumar nan</t>
+          <t>K.Ananthajothi nan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL4 (Lab)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5889,22 +5835,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>K.Ananthajothi nan</t>
+          <t>S.Vinodhkumar nan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A Block-A110 (Classroom)</t>
+          <t>Techlounge-TLGL4 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5916,49 +5862,49 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S.Vinodhkumar nan</t>
+          <t>S.Ponmani nan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jananee V</t>
+          <t>S.Ponmani nan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -5970,22 +5916,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09:00-09:50</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S.Ponmani nan</t>
+          <t>Jananee V</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>K Block-KSL03 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6012,7 +5958,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
+          <t>Techlounge-TLSL1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6024,22 +5970,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Farjana U</t>
+          <t>Jananee V</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A Block-A202 (Classroom)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6051,22 +5997,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jananee V</t>
+          <t>Farjana U</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL2 (Lab)</t>
+          <t>K Block-KFL02 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6124,22 +6070,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>P.Shanmugam nan</t>
+          <t>Kumar P</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A102 (Classroom)</t>
+          <t>K Block-KFL02 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6097,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6166,7 +6112,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A103 (Classroom)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6178,22 +6124,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chettiyar Vani Vivekanand</t>
+          <t>J.A.Adlin Layola</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Techlounge-TLFR5 (Lab)</t>
+          <t>A Block-A310 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6205,22 +6151,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P.Shanmugam nan</t>
+          <t>Chettiyar Vani Vivekanand</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A108 (Classroom)</t>
+          <t>Techlounge-TLFR3 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6232,22 +6178,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>16:00-16:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kumar P</t>
+          <t>P.Shanmugam nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>A Block-A210 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6259,22 +6205,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P.Shanmugam nan</t>
+          <t>Chettiyar Vani Vivekanand</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>Techlounge-TLFR2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6286,12 +6232,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6301,7 +6247,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL2 (Lab)</t>
+          <t>A Block-A204 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6313,49 +6259,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23531 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Madhusudhanan S</t>
+          <t>P.Shanmugam nan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Block-A208 (Classroom)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kumar P</t>
+          <t>Chettiyar Vani Vivekanand</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A Block-A204 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6367,22 +6313,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>J.A.Adlin Layola</t>
+          <t>Chettiyar Vani Vivekanand</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Block-A302 (Classroom)</t>
+          <t>A Block-A311 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6394,12 +6340,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6409,7 +6355,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>A Block-A303 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6421,61 +6367,61 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>15:50-17:30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>J.A.Adlin Layola</t>
+          <t>Kumar P</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>J Block-JR1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kumar P</t>
+          <t>Madhusudhanan S</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>Techlounge-TLGL1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>09:50-13:30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6490,7 +6436,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6502,29 +6448,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kumar P</t>
+          <t>J.A.Adlin Layola</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Techlounge-TLFL3 (Lab)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -6544,142 +6490,115 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A Block-A309 (Classroom)</t>
+          <t>A Block-A110 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chettiyar Vani Vivekanand</t>
+          <t>P.Shanmugam nan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J Block-JL1 (Lab)</t>
+          <t>A Block-A303 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>J.A.Adlin Layola</t>
+          <t>Kumar P</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A Block-A302 (Classroom)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>16:00-16:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chettiyar Vani Vivekanand</t>
+          <t>J.A.Adlin Layola</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A Block-A311 (Classroom)</t>
+          <t>A Block-A211 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>17:00-17:50</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chettiyar Vani Vivekanand</t>
+          <t>Kumar P</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A Block-A109 (Classroom)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>08:00-09:40</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CS23531 - Lab</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Madhusudhanan S</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>A Block-A205 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6694,7 +6613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,22 +6656,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>09:00-09:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>K. Anand</t>
+          <t>S.Vinothini nan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Techlounge-TLSR1 (Lab)</t>
+          <t>A Block-A202 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6764,22 +6683,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Divya M</t>
+          <t>S.Vinothini nan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A310 (Classroom)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6791,22 +6710,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Divya M</t>
+          <t>Chettiyar Vani Vivekanand</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A208 (Classroom)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6818,49 +6737,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>11:50-15:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>K. Anand</t>
+          <t>N. Duraimurugan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>J Block-JR3 (Lab)</t>
+          <t>Techlounge-TLSL2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chettiyar Vani Vivekanand</t>
+          <t>N. Duraimurugan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Block-A110 (Classroom)</t>
+          <t>Techlounge-TLSL1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6872,12 +6791,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6887,7 +6806,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A211 (Classroom)</t>
+          <t>A Block-A311 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6899,22 +6818,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S.Vinothini nan</t>
+          <t>K. Anand</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A202 (Classroom)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -6926,61 +6845,61 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>15:50-17:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Divya M</t>
+          <t>K. Anand</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>J Block-JL1 (Lab)</t>
+          <t>J Block-JR2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>K. Anand</t>
+          <t>Divya M</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A Block-A304 (Classroom)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6995,7 +6914,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Block-A108 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7007,88 +6926,88 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S.Vinothini nan</t>
+          <t>N. Duraimurugan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A Block-A110 (Classroom)</t>
+          <t>A Block-A204 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chettiyar Vani Vivekanand</t>
+          <t>Divya M</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Block-A110 (Classroom)</t>
+          <t>A Block-A103 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N. Duraimurugan</t>
+          <t>Chettiyar Vani Vivekanand</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>A Block-A310 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7103,34 +7022,34 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>A Block-A103 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S.Vinothini nan</t>
+          <t>Divya M</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A Block-A103 (Classroom)</t>
+          <t>A Block-A211 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7142,7 +7061,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7157,56 +7076,56 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Techlounge-TLFR3 (Lab)</t>
+          <t>Techlounge-TLFR5 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>N. Duraimurugan</t>
+          <t>K. Anand</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>K Block-KSL03 (Lab)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K. Anand</t>
+          <t>S.Vinothini nan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -7218,27 +7137,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N. Duraimurugan</t>
+          <t>K. Anand</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Techlounge-TLSR1 (Lab)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7169,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7265,34 +7184,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>16:00-16:50</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CS23531 - Lecture</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>N. Duraimurugan</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>A Block-A209 (Classroom)</t>
+          <t>A Block-A310 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7350,17 +7242,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>09:00-09:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jaeyalakshmi M</t>
+          <t>R.Sabitha nan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -7377,22 +7269,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>10:00-10:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R.Sabitha nan</t>
+          <t>Jaeyalakshmi M</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>J Block-JR2 (Lab)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7404,22 +7296,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23531 - Lecture</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K.Ananthajothi nan</t>
+          <t>Kirubhakar T T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7431,49 +7323,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17:00-17:50</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23533 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Parthasarathy C</t>
+          <t>Jaeyalakshmi M</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>Techlounge-TLFL1 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 1)</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jaeyalakshmi M</t>
+          <t>Parthasarathy C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>K Block-KFL03 (Lab)</t>
+          <t>A Block-A211 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7485,22 +7377,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08:00-08:50</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K.Ananthajothi nan</t>
+          <t>Kirubhakar T T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>Techlounge-TLSR1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7512,22 +7404,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09:00-09:50</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23511 - Lecture</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>K.Ananthajothi nan</t>
+          <t>Kirubhakar T T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A104/105 (Classroom)</t>
+          <t>Techlounge-TLSL1 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7539,34 +7431,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09:50-11:30</t>
+          <t>11:50-13:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS23533 - Lab (Batch 2)</t>
+          <t>CS23531 - Lab</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jaeyalakshmi M</t>
+          <t>Kirubhakar T T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Techlounge-TLFL3 (Lab)</t>
+          <t>Techlounge-TLSL2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10:00-10:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7581,7 +7473,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A Block-A211 (Classroom)</t>
+          <t>A Block-A310 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7593,22 +7485,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23533 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Parthasarathy C</t>
+          <t>Jaeyalakshmi M</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A Block-A309 (Classroom)</t>
+          <t>K Block-KFR01 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7620,22 +7512,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>16:00-16:50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS23531 - Lecture</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kirubhakar T T</t>
+          <t>R.Sabitha nan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A Block-A210 (Classroom)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7647,76 +7539,76 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>17:00-17:50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23533 - Lecture</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R.Sabitha nan</t>
+          <t>Jaeyalakshmi M</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Block-A102 (Classroom)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15:50-17:30</t>
+          <t>09:00-09:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23511 - Tutorial</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R.Sabitha nan</t>
+          <t>K.Ananthajothi nan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>K Block-KSL03 (Lab)</t>
+          <t>A Block-A304 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17:00-17:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R.Sabitha nan</t>
+          <t>K.Ananthajothi nan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>A Block-A108 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7728,22 +7620,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kirubhakar T T</t>
+          <t>K.Ananthajothi nan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL2 (Lab)</t>
+          <t>A Block-A209 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7755,22 +7647,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:50-11:30</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kirubhakar T T</t>
+          <t>R.Sabitha nan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL1 (Lab)</t>
+          <t>K Block-KSL03 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7782,49 +7674,49 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11:50-13:30</t>
+          <t>15:50-17:30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CS23531 - Lab</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kirubhakar T T</t>
+          <t>R.Sabitha nan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Techlounge-TLSL2 (Lab)</t>
+          <t>K Block-KFL01 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>09:00-09:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CS23511 - Tutorial</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K.Ananthajothi nan</t>
+          <t>R.Sabitha nan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A Block-A305 (Classroom)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7836,22 +7728,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS23533 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jaeyalakshmi M</t>
+          <t>Parthasarathy C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A Block-A108 (Classroom)</t>
+          <t>A Block-A303 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7868,17 +7760,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23511 - Lecture</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R.Sabitha nan</t>
+          <t>K.Ananthajothi nan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A Block-A109 (Classroom)</t>
+          <t>A Block-A305 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7890,7 +7782,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7905,7 +7797,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A Block-A204 (Classroom)</t>
+          <t>A Block-A108 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7855,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08:00-09:40</t>
+          <t>09:50-11:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7978,7 +7870,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Techlounge-TLGL1 (Lab)</t>
+          <t>Techlounge-TLGL2 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7990,7 +7882,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09:00-09:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8005,24 +7897,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A102 (Classroom)</t>
+          <t>A Block-A210 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -8032,19 +7924,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A308 (Classroom)</t>
+          <t>J Block-JL3 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09:00-09:50</t>
+          <t>15:00-15:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8059,24 +7951,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A210 (Classroom)</t>
+          <t>A Block-A209 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8086,7 +7978,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>K Block-KFR02 (Lab)</t>
+          <t>A Block-A302 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -8144,22 +8036,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:00-13:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Section D</t>
+          <t>Section E</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A103 (Classroom)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -8171,12 +8063,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 2)</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8186,7 +8078,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Techlounge-TLFR5 (Lab)</t>
+          <t>A Block-A102 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -8198,66 +8090,66 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14:00-14:50</t>
+          <t>13:50-15:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23532 - Lab (Batch 1)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Section E</t>
+          <t>Section D</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Block-A110 (Classroom)</t>
+          <t>Techlounge-TLFR3 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11:00-11:50</t>
+          <t>08:00-09:40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS23512 - Lecture</t>
+          <t>CS23532 - Lab (Batch 2)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Section E</t>
+          <t>Section D</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Block-A110 (Classroom)</t>
+          <t>Techlounge-TLFR2 (Lab)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13:50-15:30</t>
+          <t>13:00-13:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS23532 - Lab (Batch 1)</t>
+          <t>CS23532 - Lecture</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8267,19 +8159,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>J Block-JL1 (Lab)</t>
+          <t>A Block-A309 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8306,22 +8198,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS23532 - Lecture</t>
+          <t>CS23512 - Lecture</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Section D</t>
+          <t>Section E</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A Block-A109 (Classroom)</t>
+          <t>A Block-A310 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -8333,7 +8225,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15:00-15:50</t>
+          <t>14:00-14:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8348,7 +8240,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Block-A303 (Classroom)</t>
+          <t>A Block-A310 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8293,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12:00-12:50</t>
+          <t>11:00-11:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8421,14 +8313,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Block-A202 (Classroom)</t>
+          <t>A Block-A203 (Classroom)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8448,7 +8340,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Block-A211 (Classroom)</t>
+          <t>A Block-A109 (Classroom)</t>
         </is>
       </c>
     </row>
@@ -8460,7 +8352,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16:00-16:50</t>
+          <t>12:00-12:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
